--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\FlowCheck\src\test\resources\data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>steps</t>
   </si>
@@ -79,12 +79,19 @@
   </si>
   <si>
     <t>{ "name": "morpheus", "job": "senior engineer" }</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -443,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F5"/>
@@ -451,12 +458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.453125"/>
+    <col min="5" max="5" customWidth="true" width="20.0"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29">
@@ -478,6 +485,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="25">
       <c r="A2" s="2" t="s">
@@ -498,6 +508,9 @@
       <c r="F2" s="2">
         <v>201</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -516,6 +529,9 @@
       <c r="F3" s="2">
         <v>200</v>
       </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="37.5">
       <c r="A4" s="2" t="s">
@@ -536,6 +552,9 @@
       <c r="F4" s="2">
         <v>200</v>
       </c>
+      <c r="G4" t="s" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -553,6 +572,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>204</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
